--- a/teaching/traditional_assets/database/data/mexico/mexico_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/mexico/mexico_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.02399999999999999</v>
+        <v>-0.09250000000000003</v>
       </c>
       <c r="E2">
-        <v>-0.03949999999999999</v>
+        <v>-0.11</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,91 +603,88 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002791631111176564</v>
+        <v>0.0003773564202369911</v>
       </c>
       <c r="J2">
-        <v>0.0002131246907141779</v>
+        <v>0.0003217416639793559</v>
       </c>
       <c r="K2">
-        <v>55.8</v>
+        <v>36.24</v>
       </c>
       <c r="L2">
-        <v>0.1791907514450867</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="M2">
-        <v>16.555</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01206632653061224</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2966845878136201</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>16.555</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01206632653061224</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.2966845878136201</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>123.5</v>
+        <v>62</v>
       </c>
       <c r="V2">
-        <v>0.09001457725947522</v>
+        <v>0.04625139873181649</v>
       </c>
       <c r="W2">
-        <v>0.09689795148600533</v>
+        <v>0.06056870800545333</v>
       </c>
       <c r="X2">
-        <v>0.1655458724691339</v>
+        <v>0.09249044919190408</v>
       </c>
       <c r="Y2">
-        <v>-0.06864792098312858</v>
+        <v>-0.03192174118645075</v>
       </c>
       <c r="Z2">
-        <v>0.0881793177149606</v>
+        <v>0.0518510369443166</v>
       </c>
       <c r="AA2">
-        <v>4.141093861094723e-05</v>
+        <v>6.443901680652244e-05</v>
       </c>
       <c r="AB2">
-        <v>0.04771229253851036</v>
+        <v>0.03974737017055661</v>
       </c>
       <c r="AC2">
-        <v>-0.04767088159989942</v>
+        <v>-0.0396829311537501</v>
       </c>
       <c r="AD2">
-        <v>4506.9</v>
+        <v>1930</v>
       </c>
       <c r="AE2">
-        <v>3.890343035989809</v>
+        <v>4.020663034625822</v>
       </c>
       <c r="AF2">
-        <v>4510.790343035989</v>
+        <v>1934.020663034626</v>
       </c>
       <c r="AG2">
-        <v>4387.290343035989</v>
+        <v>1872.020663034626</v>
       </c>
       <c r="AH2">
-        <v>0.7667773420441262</v>
+        <v>0.5906271060883438</v>
       </c>
       <c r="AI2">
-        <v>0.8864692745677254</v>
+        <v>0.7784594178476573</v>
       </c>
       <c r="AJ2">
-        <v>0.7617762053515859</v>
+        <v>0.5827264193427069</v>
       </c>
       <c r="AK2">
-        <v>0.8836452923195923</v>
+        <v>0.7727892564660918</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>5210.28901734104</v>
+        <v>2142.064372918979</v>
       </c>
       <c r="AP2">
-        <v>5072.01195726704</v>
+        <v>2077.714387385822</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corporación Actinver S.A.B. de C.V. (BMV:ACTINVR B)</t>
+          <t>Value Grupo Financiero, S.A.B. de C.V. (BMV:VALUEGF O)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.119</v>
+        <v>-0.291</v>
       </c>
       <c r="E3">
-        <v>0.144</v>
+        <v>-0.3779999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,97 +728,100 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004967558619222339</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.004967558619222339</v>
       </c>
       <c r="K3">
-        <v>44.4</v>
+        <v>4.24</v>
       </c>
       <c r="L3">
-        <v>0.1640192094569634</v>
+        <v>0.2174358974358974</v>
       </c>
       <c r="M3">
-        <v>8.445</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02459947567725022</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.1902027027027027</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>8.445</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02459947567725022</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.1902027027027027</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>104.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V3">
-        <v>0.3049810661229245</v>
+        <v>0.00765068109721963</v>
       </c>
       <c r="W3">
-        <v>0.1514324693042292</v>
+        <v>0.01645962732919255</v>
       </c>
       <c r="X3">
-        <v>0.2742954696438185</v>
+        <v>0.04131730443043367</v>
       </c>
       <c r="Y3">
-        <v>-0.1228630003395893</v>
+        <v>-0.02485767710124113</v>
       </c>
       <c r="Z3">
-        <v>0.101970090782386</v>
+        <v>0.02594393815793974</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.0001288780336130449</v>
       </c>
       <c r="AB3">
-        <v>0.04633629855642837</v>
+        <v>0.03877452372730188</v>
       </c>
       <c r="AC3">
-        <v>-0.04633629855642837</v>
+        <v>-0.03864564569368884</v>
       </c>
       <c r="AD3">
-        <v>3998.1</v>
+        <v>340.5</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>4.020663034625822</v>
       </c>
       <c r="AF3">
-        <v>3998.1</v>
+        <v>344.5206630346258</v>
       </c>
       <c r="AG3">
-        <v>3893.4</v>
+        <v>336.3206630346259</v>
       </c>
       <c r="AH3">
-        <v>0.9209241258580182</v>
+        <v>0.2432504672327887</v>
       </c>
       <c r="AI3">
-        <v>0.9258718910657219</v>
+        <v>0.5896088994104427</v>
       </c>
       <c r="AJ3">
-        <v>0.9189699530294806</v>
+        <v>0.2388436388042377</v>
       </c>
       <c r="AK3">
-        <v>0.9240299038803845</v>
+        <v>0.583767749733379</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>377.9134295227525</v>
+      </c>
+      <c r="AP3">
+        <v>373.2748757321041</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Value Grupo Financiero SAB de CV (BMV:VALUEGF O)</t>
+          <t>Corporación Actinver, S. A. B. de C. V. (BMV:ACTINVR B)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.167</v>
+        <v>0.106</v>
       </c>
       <c r="E4">
-        <v>-0.223</v>
+        <v>0.158</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,103 +853,94 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002135906457052536</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001784110099420353</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.4</v>
+        <v>32</v>
       </c>
       <c r="L4">
-        <v>0.2800982800982801</v>
+        <v>0.1349072512647555</v>
       </c>
       <c r="M4">
-        <v>8.109999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.007883736755127831</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.7114035087719297</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>8.109999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.007883736755127831</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.7114035087719297</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>18.8</v>
+        <v>53.8</v>
       </c>
       <c r="V4">
-        <v>0.01827549334111014</v>
+        <v>0.2002232973576479</v>
       </c>
       <c r="W4">
-        <v>0.04236343366778149</v>
+        <v>0.1046777886817141</v>
       </c>
       <c r="X4">
-        <v>0.05679627529444936</v>
+        <v>0.1436635939533745</v>
       </c>
       <c r="Y4">
-        <v>-0.01443284162666787</v>
+        <v>-0.03898580527166036</v>
       </c>
       <c r="Z4">
-        <v>0.04642195414330248</v>
+        <v>0.05648829511085708</v>
       </c>
       <c r="AA4">
-        <v>8.282187722189446e-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04908828652059237</v>
+        <v>0.04072021661381135</v>
       </c>
       <c r="AC4">
-        <v>-0.04900546464337047</v>
+        <v>-0.04072021661381135</v>
       </c>
       <c r="AD4">
-        <v>508.8</v>
+        <v>1589.5</v>
       </c>
       <c r="AE4">
-        <v>3.890343035989809</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>512.6903430359898</v>
+        <v>1589.5</v>
       </c>
       <c r="AG4">
-        <v>493.8903430359898</v>
+        <v>1535.7</v>
       </c>
       <c r="AH4">
-        <v>0.332615515175846</v>
+        <v>0.8553976966957271</v>
       </c>
       <c r="AI4">
-        <v>0.6655806445856425</v>
+        <v>0.8365349192147782</v>
       </c>
       <c r="AJ4">
-        <v>0.3243750660149272</v>
+        <v>0.8510862336510752</v>
       </c>
       <c r="AK4">
-        <v>0.6572144906622397</v>
+        <v>0.8317716514109299</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>588.2080924855492</v>
-      </c>
-      <c r="AP4">
-        <v>570.9714948392946</v>
       </c>
     </row>
   </sheetData>
